--- a/biology/Zoologie/Indotyphlops/Indotyphlops.xlsx
+++ b/biology/Zoologie/Indotyphlops/Indotyphlops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops est un genre de serpents de la famille des Typhlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops est un genre de serpents de la famille des Typhlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 23 espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est[1]. Indotyphlops braminus est cosmopolite par introduction.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 23 espèces de ce genre se rencontrent en Asie du Sud, en Asie du Sud-Est et en Asie de l'Est. Indotyphlops braminus est cosmopolite par introduction.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 septembre 2014) :
 Indotyphlops ahsanai (Khan, 1999)
 Indotyphlops albiceps (Boulenger, 1898)
 Indotyphlops braminus (Daudin, 1803)
@@ -595,7 +611,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hedges, Marion, Lipp, Marin &amp; Vidal, 2014 : A taxonomic framework for typhlopid snakes from the Caribbean and other regions (Reptilia, Squamata). Caribbean Herpetology vol. 49, p. 1–61 (texte intégral).</t>
         </is>
